--- a/JU_nais_einheiten_unique_v2_mf.xlsx
+++ b/JU_nais_einheiten_unique_v2_mf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDEAB5-D74C-4114-BA2D-35417DFF322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985A8C96-EBDC-48BC-BDF2-812DCD84AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3375,7 +3375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="J437" sqref="J437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,7 +3755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>431</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>431</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>70</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>6511</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>298</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>18762</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>12837</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>21596</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>2146</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>8627</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>22121</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>9952</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>13322</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>746</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>20227</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>1829</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>15131</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>18383</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>553</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>12321</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>18203</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>497</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>8460</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>12388</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>18763</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>21593</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>5568</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>4175</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>699</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>12647</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>4419</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>13945</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>88</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>9728</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>16143</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>19216</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>18152</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>18241</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>18155</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>49</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>1683</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>771</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>548</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>2242</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>21396</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>21401</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>6566</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>5661</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>5661</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>1485</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>1485</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>5888</v>
       </c>
@@ -22697,7 +22697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>5014</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>5078</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>11829</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>11829</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>3240</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>9577</v>
       </c>
@@ -23039,7 +23039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>21420</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>21420</v>
       </c>
@@ -32302,9 +32302,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N928" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="9">
       <filters>
-        <filter val="38"/>
+        <filter val="18M"/>
       </filters>
     </filterColumn>
   </autoFilter>
